--- a/data/maestro_actualizado.xlsx
+++ b/data/maestro_actualizado.xlsx
@@ -11849,7 +11849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E113"/>
+  <dimension ref="A2:E113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11857,7 +11857,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
@@ -11865,7 +11864,6 @@
         </is>
       </c>
     </row>
-    <row r="3"/>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
@@ -11873,9 +11871,6 @@
         </is>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
@@ -12008,9 +12003,6 @@
         </is>
       </c>
     </row>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
@@ -12018,7 +12010,6 @@
         </is>
       </c>
     </row>
-    <row r="18"/>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
@@ -12026,9 +12017,6 @@
         </is>
       </c>
     </row>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
@@ -12161,8 +12149,6 @@
         </is>
       </c>
     </row>
-    <row r="29"/>
-    <row r="30"/>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
@@ -12170,7 +12156,6 @@
         </is>
       </c>
     </row>
-    <row r="32"/>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
@@ -12178,9 +12163,6 @@
         </is>
       </c>
     </row>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
@@ -12313,8 +12295,6 @@
         </is>
       </c>
     </row>
-    <row r="43"/>
-    <row r="44"/>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
@@ -12322,7 +12302,6 @@
         </is>
       </c>
     </row>
-    <row r="46"/>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
@@ -12330,9 +12309,6 @@
         </is>
       </c>
     </row>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
@@ -12465,8 +12441,6 @@
         </is>
       </c>
     </row>
-    <row r="57"/>
-    <row r="58"/>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
@@ -12474,7 +12448,6 @@
         </is>
       </c>
     </row>
-    <row r="60"/>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
@@ -12482,9 +12455,6 @@
         </is>
       </c>
     </row>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
@@ -12617,8 +12587,6 @@
         </is>
       </c>
     </row>
-    <row r="71"/>
-    <row r="72"/>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
@@ -12626,7 +12594,6 @@
         </is>
       </c>
     </row>
-    <row r="74"/>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
@@ -12634,9 +12601,6 @@
         </is>
       </c>
     </row>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
@@ -13072,7 +13036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G430"/>
+  <dimension ref="A1:G435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26413,6 +26377,161 @@
         <v>0</v>
       </c>
       <c r="G430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>CATEGORIA 3: OPERACION A 21hs</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>468939</v>
+      </c>
+      <c r="F431" t="n">
+        <v>17500</v>
+      </c>
+      <c r="G431" t="n">
+        <v>26250</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>CATEGORIA 3: OPERACION A 21hs</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>468939</v>
+      </c>
+      <c r="F432" t="n">
+        <v>17500</v>
+      </c>
+      <c r="G432" t="n">
+        <v>26250</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>CATEGORIA 3: OPERACION A 21hs</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>468939</v>
+      </c>
+      <c r="F433" t="n">
+        <v>17500</v>
+      </c>
+      <c r="G433" t="n">
+        <v>26250</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>CATEGORIA 3: OPERACION A 21hs</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
+        <v>468939</v>
+      </c>
+      <c r="F434" t="n">
+        <v>17500</v>
+      </c>
+      <c r="G434" t="n">
+        <v>26250</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>CALL CENTER</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>CATEGORIA 3: OPERACION A 21hs</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
+        <v>512689</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0</v>
+      </c>
+      <c r="G435" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26427,7 +26546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1206"/>
+  <dimension ref="A1:G1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78790,7 +78909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O472"/>
+  <dimension ref="A1:G472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/data/maestro_actualizado.xlsx
+++ b/data/maestro_actualizado.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indice" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categorias_Agua_Potable" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RAW_Agua_Potable" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categorias_CALL_CENTER" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categorias_CEREALES" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categorias_Funebres" sheetId="5" state="visible" r:id="rId5"/>
@@ -17,6 +17,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Adicionales" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReglasConexiones" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="call center base 48hs O.S." sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categorias_AGUA_POTABLE" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11843,6 +11844,1302 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Rama</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Agrupamiento</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Mes</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Basico</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>No_rem</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Suma_fija</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PERSONAL SUPERVISIÓN y JEFATURA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 1ra.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3208680</v>
+      </c>
+      <c r="F2" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PERSONAL SUPERVISIÓN y JEFATURA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 1ra.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3208680</v>
+      </c>
+      <c r="F3" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>PERSONAL SUPERVISIÓN y JEFATURA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 1ra.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3208680</v>
+      </c>
+      <c r="F4" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PERSONAL SUPERVISIÓN y JEFATURA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 1ra.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3208680</v>
+      </c>
+      <c r="F5" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PERSONAL SUPERVISIÓN y JEFATURA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 1ra.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3508680</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PERSONAL TÉCNICO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 2da.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1764774</v>
+      </c>
+      <c r="F7" t="n">
+        <v>66000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PERSONAL TÉCNICO</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 2da.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1764774</v>
+      </c>
+      <c r="F8" t="n">
+        <v>66000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PERSONAL TÉCNICO</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 2da.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1764774</v>
+      </c>
+      <c r="F9" t="n">
+        <v>66000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PERSONAL TÉCNICO</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 2da.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1764774</v>
+      </c>
+      <c r="F10" t="n">
+        <v>66000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PERSONAL TÉCNICO</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 2da.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1929774</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PERSONAL TÉCNICO</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 1ra.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2032164</v>
+      </c>
+      <c r="F12" t="n">
+        <v>76000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PERSONAL TÉCNICO</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 1ra.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2032164</v>
+      </c>
+      <c r="F13" t="n">
+        <v>76000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PERSONAL TÉCNICO</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 1ra.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2032164</v>
+      </c>
+      <c r="F14" t="n">
+        <v>76000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PERSONAL TÉCNICO</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 1ra.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2032164</v>
+      </c>
+      <c r="F15" t="n">
+        <v>76000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PERSONAL TÉCNICO</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>OPERADOR DE 1ra.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2222164</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>AYUDANTE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1176516</v>
+      </c>
+      <c r="F17" t="n">
+        <v>44000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>AYUDANTE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1176516</v>
+      </c>
+      <c r="F18" t="n">
+        <v>44000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AYUDANTE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1176516</v>
+      </c>
+      <c r="F19" t="n">
+        <v>44000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>AYUDANTE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1176516</v>
+      </c>
+      <c r="F20" t="n">
+        <v>44000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>AYUDANTE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1286516</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MEDIO OFICIAL / ADMINISTRATIVO 2da.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1443906</v>
+      </c>
+      <c r="F22" t="n">
+        <v>54000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MEDIO OFICIAL / ADMINISTRATIVO 2da.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1443906</v>
+      </c>
+      <c r="F23" t="n">
+        <v>54000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MEDIO OFICIAL / ADMINISTRATIVO 2da.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1443906</v>
+      </c>
+      <c r="F24" t="n">
+        <v>54000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MEDIO OFICIAL / ADMINISTRATIVO 2da.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1443906</v>
+      </c>
+      <c r="F25" t="n">
+        <v>54000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MEDIO OFICIAL / ADMINISTRATIVO 2da.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1578906</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>OFICIAL / ADMINISTRATIVO 1ra.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1604340</v>
+      </c>
+      <c r="F27" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>OFICIAL / ADMINISTRATIVO 1ra.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1604340</v>
+      </c>
+      <c r="F28" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>OFICIAL / ADMINISTRATIVO 1ra.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1604340</v>
+      </c>
+      <c r="F29" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>OFICIAL / ADMINISTRATIVO 1ra.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1604340</v>
+      </c>
+      <c r="F30" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>OFICIAL / ADMINISTRATIVO 1ra.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1754340</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>OFICIAL ENCARGADO / ENCARGADO</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1818252</v>
+      </c>
+      <c r="F32" t="n">
+        <v>68000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>OFICIAL ENCARGADO / ENCARGADO</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1818252</v>
+      </c>
+      <c r="F33" t="n">
+        <v>68000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>OFICIAL ENCARGADO / ENCARGADO</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1818252</v>
+      </c>
+      <c r="F34" t="n">
+        <v>68000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>OFICIAL ENCARGADO / ENCARGADO</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1818252</v>
+      </c>
+      <c r="F35" t="n">
+        <v>68000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>OFICIAL ENCARGADO / ENCARGADO</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1988252</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MAESTRANZA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Maestranza C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1069560</v>
+      </c>
+      <c r="F37" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MAESTRANZA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Maestranza C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1069560</v>
+      </c>
+      <c r="F38" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MAESTRANZA</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Maestranza C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1069560</v>
+      </c>
+      <c r="F39" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MAESTRANZA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Maestranza C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1069560</v>
+      </c>
+      <c r="F40" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AGUA POTABLE</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MAESTRANZA</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Maestranza C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1169560</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/data/maestro_actualizado.xlsx
+++ b/data/maestro_actualizado.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indice" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RAW_Agua_Potable" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categorias_Agua_Potable" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categorias_CALL_CENTER" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categorias_CEREALES" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categorias_Funebres" sheetId="5" state="visible" r:id="rId5"/>
@@ -17,7 +17,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Adicionales" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReglasConexiones" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="call center base 48hs O.S." sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categorias_AGUA_POTABLE" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReglasAdicionales" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29,13 +29,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,9 +61,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +561,18 @@
       <c r="B10" t="inlineStr">
         <is>
           <t>Copia hoja original</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ReglasAdicionales</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Reglas de adicionales: Título Turismo, Cajeros, Vidrierista y KM (CCT 130/75).</t>
         </is>
       </c>
     </row>
@@ -11850,1289 +11868,494 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="41" customWidth="1" min="5" max="5"/>
+    <col width="43" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="55" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Rama</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Agrupamiento</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Mes</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Basico</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>No_rem</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Suma_fija</t>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Convenio/Rama</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Articulo/Regla</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Concepto</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Tipo</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Base de cálculo</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Base categoría (si aplica)</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Tasa/Porcentaje</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Unidad</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Notas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUA POTABLE</t>
+          <t>TURISMO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PERSONAL SUPERVISIÓN y JEFATURA</t>
+          <t>Regla Turismo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>OPERADOR DE 1ra.</t>
+          <t>Adicional por Título (Terciario)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-12</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>3208680</v>
-      </c>
-      <c r="F2" t="n">
-        <v>120000</v>
-      </c>
-      <c r="G2" t="n">
-        <v>180000</v>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Salario básico convencional</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(categoría seleccionada)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>mensual</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Títulos terciarios (mín. 3 años) en carreras específicas de Turismo.</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AGUA POTABLE</t>
+          <t>TURISMO</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PERSONAL SUPERVISIÓN y JEFATURA</t>
+          <t>Regla Turismo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>OPERADOR DE 1ra.</t>
+          <t>Adicional por Título (Universitario)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-01</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>3208680</v>
-      </c>
-      <c r="F3" t="n">
-        <v>120000</v>
-      </c>
-      <c r="G3" t="n">
-        <v>180000</v>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Salario básico convencional</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(categoría seleccionada)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>mensual</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Licenciaturas universitarias reconocidas.</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AGUA POTABLE</t>
+          <t>CCT 130/75</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PERSONAL SUPERVISIÓN y JEFATURA</t>
+          <t>Art. 23 (Acuerdo 26/09/1983)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OPERADOR DE 1ra.</t>
+          <t>Vidrierista</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-02</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>3208680</v>
-      </c>
-      <c r="F4" t="n">
-        <v>120000</v>
-      </c>
-      <c r="G4" t="n">
-        <v>180000</v>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Básico inicial Vendedor B</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vendedor B (básico inicial)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.83%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>mensual</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Aplicar cuando corresponda tarea de vidrierista.</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AGUA POTABLE</t>
+          <t>CCT 130/75</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PERSONAL SUPERVISIÓN y JEFATURA</t>
+          <t>Art. 30 (Acuerdo 26/09/1983)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>OPERADOR DE 1ra.</t>
+          <t>Adicional Cajero A y C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-03</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>3208680</v>
-      </c>
-      <c r="F5" t="n">
-        <v>120000</v>
-      </c>
-      <c r="G5" t="n">
-        <v>180000</v>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Básico inicial Cajeros A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cajeros A (básico inicial)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12.25%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>mensual</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Para Cajero A y Cajero C.</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AGUA POTABLE</t>
+          <t>CCT 130/75</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PERSONAL SUPERVISIÓN y JEFATURA</t>
+          <t>Art. 30 (Acuerdo 26/09/1983)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OPERADOR DE 1ra.</t>
+          <t>Adicional Cajero B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-04</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>3508680</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
+          <t>Porcentaje</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Básico inicial Cajeros B</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cajeros B (básico inicial)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>mensual</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Para Cajero B.</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AGUA POTABLE</t>
+          <t>CCT 130/75</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PERSONAL TÉCNICO</t>
+          <t>Art. 36 (Acuerdo 26/09/1983)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>OPERADOR DE 2da.</t>
+          <t>Ayudante de Chofer - 0 a 100 km</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-12</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1764774</v>
-      </c>
-      <c r="F7" t="n">
-        <v>66000</v>
-      </c>
-      <c r="G7" t="n">
-        <v>99000</v>
+          <t>Porcentaje por km</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Básico inicial Auxiliar A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Auxiliar A (básico inicial)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0082%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>por km</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Tasa por km para los primeros 100 km.</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AGUA POTABLE</t>
+          <t>CCT 130/75</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PERSONAL TÉCNICO</t>
+          <t>Art. 36 (Acuerdo 26/09/1983)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>OPERADOR DE 2da.</t>
+          <t>Ayudante de Chofer - más de 100 km</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-01</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1764774</v>
-      </c>
-      <c r="F8" t="n">
-        <v>66000</v>
-      </c>
-      <c r="G8" t="n">
-        <v>99000</v>
+          <t>Porcentaje por km</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Básico inicial Auxiliar Especializado A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Auxiliar Especializado A (básico inicial)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>por km</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Tasa por km para km excedentes (&gt;100).</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AGUA POTABLE</t>
+          <t>CCT 130/75</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PERSONAL TÉCNICO</t>
+          <t>Art. 36 (Acuerdo 26/09/1983)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>OPERADOR DE 2da.</t>
+          <t>Chofer - 0 a 100 km</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-02</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1764774</v>
-      </c>
-      <c r="F9" t="n">
-        <v>66000</v>
-      </c>
-      <c r="G9" t="n">
-        <v>99000</v>
+          <t>Porcentaje por km</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Básico inicial Auxiliar B</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Auxiliar B (básico inicial)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>por km</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Tasa por km para los primeros 100 km.</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AGUA POTABLE</t>
+          <t>CCT 130/75</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PERSONAL TÉCNICO</t>
+          <t>Art. 36 (Acuerdo 26/09/1983)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>OPERADOR DE 2da.</t>
+          <t>Chofer - más de 100 km</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-03</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>1764774</v>
-      </c>
-      <c r="F10" t="n">
-        <v>66000</v>
-      </c>
-      <c r="G10" t="n">
-        <v>99000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>PERSONAL TÉCNICO</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>OPERADOR DE 2da.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2026-04</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>1929774</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PERSONAL TÉCNICO</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>OPERADOR DE 1ra.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2025-12</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>2032164</v>
-      </c>
-      <c r="F12" t="n">
-        <v>76000</v>
-      </c>
-      <c r="G12" t="n">
-        <v>114000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>PERSONAL TÉCNICO</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>OPERADOR DE 1ra.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2026-01</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>2032164</v>
-      </c>
-      <c r="F13" t="n">
-        <v>76000</v>
-      </c>
-      <c r="G13" t="n">
-        <v>114000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PERSONAL TÉCNICO</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>OPERADOR DE 1ra.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2026-02</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>2032164</v>
-      </c>
-      <c r="F14" t="n">
-        <v>76000</v>
-      </c>
-      <c r="G14" t="n">
-        <v>114000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>PERSONAL TÉCNICO</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>OPERADOR DE 1ra.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2026-03</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>2032164</v>
-      </c>
-      <c r="F15" t="n">
-        <v>76000</v>
-      </c>
-      <c r="G15" t="n">
-        <v>114000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>PERSONAL TÉCNICO</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>OPERADOR DE 1ra.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2026-04</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>2222164</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>AYUDANTE</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2025-12</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>1176516</v>
-      </c>
-      <c r="F17" t="n">
-        <v>44000</v>
-      </c>
-      <c r="G17" t="n">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>AYUDANTE</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2026-01</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>1176516</v>
-      </c>
-      <c r="F18" t="n">
-        <v>44000</v>
-      </c>
-      <c r="G18" t="n">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>AYUDANTE</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2026-02</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>1176516</v>
-      </c>
-      <c r="F19" t="n">
-        <v>44000</v>
-      </c>
-      <c r="G19" t="n">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>AYUDANTE</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2026-03</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>1176516</v>
-      </c>
-      <c r="F20" t="n">
-        <v>44000</v>
-      </c>
-      <c r="G20" t="n">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>AYUDANTE</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2026-04</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>1286516</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>MEDIO OFICIAL / ADMINISTRATIVO 2da.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2025-12</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>1443906</v>
-      </c>
-      <c r="F22" t="n">
-        <v>54000</v>
-      </c>
-      <c r="G22" t="n">
-        <v>81000</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>MEDIO OFICIAL / ADMINISTRATIVO 2da.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2026-01</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>1443906</v>
-      </c>
-      <c r="F23" t="n">
-        <v>54000</v>
-      </c>
-      <c r="G23" t="n">
-        <v>81000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>MEDIO OFICIAL / ADMINISTRATIVO 2da.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2026-02</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>1443906</v>
-      </c>
-      <c r="F24" t="n">
-        <v>54000</v>
-      </c>
-      <c r="G24" t="n">
-        <v>81000</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>MEDIO OFICIAL / ADMINISTRATIVO 2da.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2026-03</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>1443906</v>
-      </c>
-      <c r="F25" t="n">
-        <v>54000</v>
-      </c>
-      <c r="G25" t="n">
-        <v>81000</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>MEDIO OFICIAL / ADMINISTRATIVO 2da.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2026-04</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>1578906</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>OFICIAL / ADMINISTRATIVO 1ra.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2025-12</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>1604340</v>
-      </c>
-      <c r="F27" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G27" t="n">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>OFICIAL / ADMINISTRATIVO 1ra.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2026-01</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>1604340</v>
-      </c>
-      <c r="F28" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G28" t="n">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>OFICIAL / ADMINISTRATIVO 1ra.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2026-02</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>1604340</v>
-      </c>
-      <c r="F29" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G29" t="n">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>OFICIAL / ADMINISTRATIVO 1ra.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2026-03</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>1604340</v>
-      </c>
-      <c r="F30" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G30" t="n">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>OFICIAL / ADMINISTRATIVO 1ra.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2026-04</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>1754340</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>OFICIAL ENCARGADO / ENCARGADO</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2025-12</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>1818252</v>
-      </c>
-      <c r="F32" t="n">
-        <v>68000</v>
-      </c>
-      <c r="G32" t="n">
-        <v>102000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>OFICIAL ENCARGADO / ENCARGADO</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2026-01</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>1818252</v>
-      </c>
-      <c r="F33" t="n">
-        <v>68000</v>
-      </c>
-      <c r="G33" t="n">
-        <v>102000</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>OFICIAL ENCARGADO / ENCARGADO</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2026-02</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>1818252</v>
-      </c>
-      <c r="F34" t="n">
-        <v>68000</v>
-      </c>
-      <c r="G34" t="n">
-        <v>102000</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>OFICIAL ENCARGADO / ENCARGADO</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2026-03</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>1818252</v>
-      </c>
-      <c r="F35" t="n">
-        <v>68000</v>
-      </c>
-      <c r="G35" t="n">
-        <v>102000</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>PERSONAL AUXILIAR / ADMINISTRATIVO</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>OFICIAL ENCARGADO / ENCARGADO</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2026-04</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>1988252</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>MAESTRANZA</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Maestranza C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2025-12</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>1069560</v>
-      </c>
-      <c r="F37" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G37" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>MAESTRANZA</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Maestranza C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2026-01</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>1069560</v>
-      </c>
-      <c r="F38" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G38" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>MAESTRANZA</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Maestranza C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2026-02</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>1069560</v>
-      </c>
-      <c r="F39" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G39" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>MAESTRANZA</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Maestranza C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2026-03</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>1069560</v>
-      </c>
-      <c r="F40" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G40" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>AGUA POTABLE</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>MAESTRANZA</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Maestranza C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2026-04</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>1169560</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
+          <t>Porcentaje por km</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Básico inicial Auxiliar Especializado B</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Auxiliar Especializado B (básico inicial)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0115%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>por km</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Tasa por km para km excedentes (&gt;100).</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -14333,7 +13556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G435"/>
+  <dimension ref="A1:G430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27674,161 +26897,6 @@
         <v>0</v>
       </c>
       <c r="G430" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>CALL CENTER</t>
-        </is>
-      </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>CALL CENTER</t>
-        </is>
-      </c>
-      <c r="C431" t="inlineStr">
-        <is>
-          <t>CATEGORIA 3: OPERACION A 21hs</t>
-        </is>
-      </c>
-      <c r="D431" t="inlineStr">
-        <is>
-          <t>2025-12</t>
-        </is>
-      </c>
-      <c r="E431" t="n">
-        <v>468939</v>
-      </c>
-      <c r="F431" t="n">
-        <v>17500</v>
-      </c>
-      <c r="G431" t="n">
-        <v>26250</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>CALL CENTER</t>
-        </is>
-      </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t>CALL CENTER</t>
-        </is>
-      </c>
-      <c r="C432" t="inlineStr">
-        <is>
-          <t>CATEGORIA 3: OPERACION A 21hs</t>
-        </is>
-      </c>
-      <c r="D432" t="inlineStr">
-        <is>
-          <t>2026-01</t>
-        </is>
-      </c>
-      <c r="E432" t="n">
-        <v>468939</v>
-      </c>
-      <c r="F432" t="n">
-        <v>17500</v>
-      </c>
-      <c r="G432" t="n">
-        <v>26250</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>CALL CENTER</t>
-        </is>
-      </c>
-      <c r="B433" t="inlineStr">
-        <is>
-          <t>CALL CENTER</t>
-        </is>
-      </c>
-      <c r="C433" t="inlineStr">
-        <is>
-          <t>CATEGORIA 3: OPERACION A 21hs</t>
-        </is>
-      </c>
-      <c r="D433" t="inlineStr">
-        <is>
-          <t>2026-02</t>
-        </is>
-      </c>
-      <c r="E433" t="n">
-        <v>468939</v>
-      </c>
-      <c r="F433" t="n">
-        <v>17500</v>
-      </c>
-      <c r="G433" t="n">
-        <v>26250</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>CALL CENTER</t>
-        </is>
-      </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>CALL CENTER</t>
-        </is>
-      </c>
-      <c r="C434" t="inlineStr">
-        <is>
-          <t>CATEGORIA 3: OPERACION A 21hs</t>
-        </is>
-      </c>
-      <c r="D434" t="inlineStr">
-        <is>
-          <t>2026-03</t>
-        </is>
-      </c>
-      <c r="E434" t="n">
-        <v>468939</v>
-      </c>
-      <c r="F434" t="n">
-        <v>17500</v>
-      </c>
-      <c r="G434" t="n">
-        <v>26250</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>CALL CENTER</t>
-        </is>
-      </c>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t>CALL CENTER</t>
-        </is>
-      </c>
-      <c r="C435" t="inlineStr">
-        <is>
-          <t>CATEGORIA 3: OPERACION A 21hs</t>
-        </is>
-      </c>
-      <c r="D435" t="inlineStr">
-        <is>
-          <t>2026-04</t>
-        </is>
-      </c>
-      <c r="E435" t="n">
-        <v>512689</v>
-      </c>
-      <c r="F435" t="n">
-        <v>0</v>
-      </c>
-      <c r="G435" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/maestro_actualizado.xlsx
+++ b/data/maestro_actualizado.xlsx
@@ -11868,7 +11868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12358,6 +12358,28 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Adic. por Título (Turismo)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2,5% o 5% según nivel</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Aplica sobre Básico y NR ($40k u otros NR del mes)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Seleccionable en el sistema</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -93931,7 +93953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94621,6 +94643,222 @@
         <is>
           <t>Según horas ingresadas</t>
         </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Adicional General (todo el personal, incluidos choferes)</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>46054</v>
+      </c>
+      <c r="D35" t="n">
+        <v>62617</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Adicional General (todo el personal, incluidos choferes)</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>46082</v>
+      </c>
+      <c r="D36" t="n">
+        <v>62617</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Adicional General (todo el personal, incluidos choferes)</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>46113</v>
+      </c>
+      <c r="D37" t="n">
+        <v>62617</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Adicional Personal no incluido en inciso 1</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>46054</v>
+      </c>
+      <c r="D38" t="n">
+        <v>29298</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Adicional Personal no incluido en inciso 1</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>46082</v>
+      </c>
+      <c r="D39" t="n">
+        <v>29298</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Adicional Personal no incluido en inciso 1</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>46113</v>
+      </c>
+      <c r="D40" t="n">
+        <v>29298</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Adicional Chofer/Furgonero (vehículos)</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>46054</v>
+      </c>
+      <c r="D41" t="n">
+        <v>21267</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Adicional Chofer/Furgonero (vehículos)</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>46082</v>
+      </c>
+      <c r="D42" t="n">
+        <v>21267</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Adicional Chofer/Furgonero (vehículos)</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>46113</v>
+      </c>
+      <c r="D43" t="n">
+        <v>21267</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Adicional por Indumentaria</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>46054</v>
+      </c>
+      <c r="D44" t="n">
+        <v>11005</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Adicional por Indumentaria</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>46082</v>
+      </c>
+      <c r="D45" t="n">
+        <v>11005</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Adicional por Indumentaria</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>46113</v>
+      </c>
+      <c r="D46" t="n">
+        <v>11005</v>
       </c>
     </row>
   </sheetData>

--- a/data/maestro_actualizado.xlsx
+++ b/data/maestro_actualizado.xlsx
@@ -18,9 +18,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReglasConexiones" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="call center base 48hs O.S." sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Categorias_AGUA_POTABLE" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReglaTituloTurismo" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReglaCajero" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReglaKM" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReglasAdicionales" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32,13 +30,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,9 +62,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,6 +563,18 @@
       <c r="B10" t="inlineStr">
         <is>
           <t>Copia hoja original</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>ReglasAdicionales</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Reglas de adicionales (Título Turismo, Vidriera, Cajeros, KM) para cálculo desde el maestro.</t>
         </is>
       </c>
     </row>
@@ -13149,300 +13166,648 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="18" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="13" customWidth="1" min="14" max="14"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>nivel</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>pct</t>
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>regla_id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>rama_aplica</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>concepto</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>articulo</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>tipo</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>parametro</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>tramo_desde</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>tramo_hasta</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>porcentaje</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>base_ref_rama</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>base_ref_agrup</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>base_ref_categoria</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>base_ref_mes</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>observaciones</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sin título</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
+          <t>TUR_TITULO_TERC</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Adicional por Título</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>TITULO</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>terciario</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2,5% sobre básico (y NR si corresponde)</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Terciario (2,5%)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.025</v>
+          <t>TUR_TITULO_UNIV</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Adicional por Título</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>TITULO</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>universitario</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>TURISMO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>5% sobre básico (y NR si corresponde)</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Universitario/Licenciatura (5%)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>tipo</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>base_categoria_ref</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>nota</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cajeros A</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1225</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Cajeros A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12,25% sobre básico inicial Cajeros A</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cajeros C</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1225</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Cajeros A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12,25% sobre básico inicial Cajeros A</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Cajeros B</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.48</v>
+          <t>CCT130_VIDRIERA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cajeros B</t>
+          <t>Armado de Vidriera</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>48% sobre básico inicial Cajeros B</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>rol</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>tramo</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>pct_sobre_base_ref</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>base_categoria_ref</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>nota</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ayudante de Chofer</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>&lt;=100km</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8.2e-05</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Auxiliar A</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0,0082% sobre básico inicial Auxiliar A</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ayudante de Chofer</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>&gt;100km</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Auxiliar Especializado A</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0,01% sobre básico inicial Auxiliar Especializado A</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Chofer</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>&lt;=100km</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Auxiliar B</t>
+          <t>Art. 23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,01% sobre básico inicial Auxiliar B</t>
+          <t>PORC_BASICO_REF</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Vendedor B</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>% sobre básico inicial Vendedor B (CCT 130/75 – Acuerdo 26/09/1983)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chofer</t>
+          <t>CCT130_CAJERO_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>&gt;100km</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.000115</v>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Adicional Cajero A</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Art. 30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PORC_BASICO_REF</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Cajeros A</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>% sobre básico inicial Cajeros A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CCT130_CAJERO_C</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Adicional Cajero C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Art. 30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PORC_BASICO_REF</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Cajeros A</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>% sobre básico inicial Cajeros A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CCT130_CAJERO_B</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Adicional Cajero B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Art. 30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PORC_BASICO_REF</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>48</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Cajeros B</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>% sobre básico inicial Cajeros B</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CCT130_KM_AYUD_0_100</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Adicional KM Ayudante</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Art. 36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>PORC_POR_KM_BASICO_REF</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>AYUDANTE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.008200000000000001</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Auxiliar A</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0,0082% por km (primeros 100 km) sobre básico inicial Auxiliar A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CCT130_KM_AYUD_101_INF</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Adicional KM Ayudante</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Art. 36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PORC_POR_KM_BASICO_REF</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>AYUDANTE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>101</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Auxiliar Especializado A</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0,01% por km (&gt;100 km) sobre básico inicial Auxiliar Especializado A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CCT130_KM_CHOF_0_100</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Adicional KM Chofer</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Art. 36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>PORC_POR_KM_BASICO_REF</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CHOFER</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Auxiliar B</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0,01% por km (primeros 100 km) sobre básico inicial Auxiliar B</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CCT130_KM_CHOF_101_INF</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Adicional KM Chofer</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Art. 36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>PORC_POR_KM_BASICO_REF</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>CHOFER</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>101</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>GENERAL</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>Auxiliar Especializado B</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0,0115% sobre básico inicial Auxiliar Especializado B</t>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0,0115% por km (&gt;100 km) sobre básico inicial Auxiliar Especializado B</t>
         </is>
       </c>
     </row>
@@ -65618,6 +65983,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>ADMINISTRATIVO</t>
         </is>
       </c>
@@ -65644,6 +66014,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>AUXILIAR – CAPILLERO – SOLDADOR – LUSTRADOR – SASTRE</t>
         </is>
       </c>
@@ -65670,6 +66045,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>AUXILIAR – CHOFER – FURGONERO – AMBULANCIERO</t>
         </is>
       </c>
@@ -65696,6 +66076,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>AUXILIAR – PERSONAL SALAS VELATORIAS</t>
         </is>
       </c>
@@ -65722,6 +66107,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>MAESTRANZA – AYUDANTE – CAMILLERO – SERENO</t>
         </is>
       </c>
@@ -65748,6 +66138,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>MAESTRANZA – PEÓN</t>
         </is>
       </c>
@@ -65774,6 +66169,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>MAESTRANZA – PORTERO</t>
         </is>
       </c>
@@ -65800,6 +66200,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>ADMINISTRATIVO</t>
         </is>
       </c>
@@ -65826,6 +66231,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>AUXILIAR – CAPILLERO – SOLDADOR – LUSTRADOR – SASTRE</t>
         </is>
       </c>
@@ -65852,6 +66262,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>AUXILIAR – CHOFER – FURGONERO – AMBULANCIERO</t>
         </is>
       </c>
@@ -65878,6 +66293,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>AUXILIAR – PERSONAL SALAS VELATORIAS</t>
         </is>
       </c>
@@ -65904,6 +66324,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>MAESTRANZA – AYUDANTE – CAMILLERO – SERENO</t>
         </is>
       </c>
@@ -65930,6 +66355,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>MAESTRANZA – PEÓN</t>
         </is>
       </c>
@@ -65956,6 +66386,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>MAESTRANZA – PORTERO</t>
         </is>
       </c>
@@ -65982,6 +66417,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>ADMINISTRATIVO</t>
         </is>
       </c>
@@ -66008,6 +66448,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>AUXILIAR – CAPILLERO – SOLDADOR – LUSTRADOR – SASTRE</t>
         </is>
       </c>
@@ -66034,6 +66479,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>AUXILIAR – CHOFER – FURGONERO – AMBULANCIERO</t>
         </is>
       </c>
@@ -66060,6 +66510,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>AUXILIAR – PERSONAL SALAS VELATORIAS</t>
         </is>
       </c>
@@ -66086,6 +66541,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>MAESTRANZA – AYUDANTE – CAMILLERO – SERENO</t>
         </is>
       </c>
@@ -66112,6 +66572,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>MAESTRANZA – PEÓN</t>
         </is>
       </c>
@@ -66138,6 +66603,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>MAESTRANZA – PORTERO</t>
         </is>
       </c>
@@ -66164,6 +66634,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>ADMINISTRATIVO</t>
         </is>
       </c>
@@ -66190,6 +66665,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>AUXILIAR – CAPILLERO – SOLDADOR – LUSTRADOR – SASTRE</t>
         </is>
       </c>
@@ -66216,6 +66696,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>AUXILIAR – CHOFER – FURGONERO – AMBULANCIERO</t>
         </is>
       </c>
@@ -66242,6 +66727,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>AUXILIAR – PERSONAL SALAS VELATORIAS</t>
         </is>
       </c>
@@ -66268,6 +66758,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>MAESTRANZA – AYUDANTE – CAMILLERO – SERENO</t>
         </is>
       </c>
@@ -66294,6 +66789,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>MAESTRANZA – PEÓN</t>
         </is>
       </c>
@@ -66320,6 +66820,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>MAESTRANZA – PORTERO</t>
         </is>
       </c>
@@ -66346,6 +66851,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>ADMINISTRATIVO</t>
         </is>
       </c>
@@ -66372,6 +66882,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>AUXILIAR – CAPILLERO – SOLDADOR – LUSTRADOR – SASTRE</t>
         </is>
       </c>
@@ -66398,6 +66913,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>AUXILIAR – CHOFER – FURGONERO – AMBULANCIERO</t>
         </is>
       </c>
@@ -66424,6 +66944,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>AUXILIAR – PERSONAL SALAS VELATORIAS</t>
         </is>
       </c>
@@ -66450,6 +66975,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>MAESTRANZA – AYUDANTE – CAMILLERO – SERENO</t>
         </is>
       </c>
@@ -66476,6 +67006,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>MAESTRANZA – PEÓN</t>
         </is>
       </c>
@@ -66502,6 +67037,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>MAESTRANZA – PORTERO</t>
         </is>
       </c>
@@ -66528,6 +67068,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>ADMINISTRATIVO</t>
         </is>
       </c>
@@ -66554,6 +67099,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>AUXILIAR – CAPILLERO – SOLDADOR – LUSTRADOR – SASTRE</t>
         </is>
       </c>
@@ -66580,6 +67130,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>AUXILIAR – CHOFER – FURGONERO – AMBULANCIERO</t>
         </is>
       </c>
@@ -66606,6 +67161,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>AUXILIAR – PERSONAL SALAS VELATORIAS</t>
         </is>
       </c>
@@ -66632,6 +67192,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>MAESTRANZA – AYUDANTE – CAMILLERO – SERENO</t>
         </is>
       </c>
@@ -66658,6 +67223,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>MAESTRANZA – PEÓN</t>
         </is>
       </c>
@@ -66684,6 +67254,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>MAESTRANZA – PORTERO</t>
         </is>
       </c>
@@ -66710,6 +67285,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>ADMINISTRATIVO</t>
         </is>
       </c>
@@ -66736,6 +67316,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>AUXILIAR – CAPILLERO – SOLDADOR – LUSTRADOR – SASTRE</t>
         </is>
       </c>
@@ -66762,6 +67347,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>AUXILIAR – CHOFER – FURGONERO – AMBULANCIERO</t>
         </is>
       </c>
@@ -66788,6 +67378,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>AUXILIAR – PERSONAL SALAS VELATORIAS</t>
         </is>
       </c>
@@ -66814,6 +67409,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>MAESTRANZA – AYUDANTE – CAMILLERO – SERENO</t>
         </is>
       </c>
@@ -66840,6 +67440,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>MAESTRANZA – PEÓN</t>
         </is>
       </c>
@@ -66866,6 +67471,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>MAESTRANZA – PORTERO</t>
         </is>
       </c>
@@ -66892,6 +67502,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>ADMINISTRATIVO</t>
         </is>
       </c>
@@ -66918,6 +67533,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>AUXILIAR – CAPILLERO – SOLDADOR – LUSTRADOR – SASTRE</t>
         </is>
       </c>
@@ -66944,6 +67564,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>AUXILIAR – CHOFER – FURGONERO – AMBULANCIERO</t>
         </is>
       </c>
@@ -66970,6 +67595,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>AUXILIAR – PERSONAL SALAS VELATORIAS</t>
         </is>
       </c>
@@ -66996,6 +67626,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>MAESTRANZA – AYUDANTE – CAMILLERO – SERENO</t>
         </is>
       </c>
@@ -67022,6 +67657,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>MAESTRANZA – PEÓN</t>
         </is>
       </c>
@@ -67048,6 +67688,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>MAESTRANZA – PORTERO</t>
         </is>
       </c>
@@ -67074,6 +67719,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>ADMINISTRATIVO</t>
         </is>
       </c>
@@ -67100,6 +67750,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>AUXILIAR – CAPILLERO – SOLDADOR – LUSTRADOR – SASTRE</t>
         </is>
       </c>
@@ -67126,6 +67781,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>AUXILIAR – CHOFER – FURGONERO – AMBULANCIERO</t>
         </is>
       </c>
@@ -67152,6 +67812,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>AUXILIAR – PERSONAL SALAS VELATORIAS</t>
         </is>
       </c>
@@ -67178,6 +67843,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>MAESTRANZA – AYUDANTE – CAMILLERO – SERENO</t>
         </is>
       </c>
@@ -67204,6 +67874,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>MAESTRANZA – PEÓN</t>
         </is>
       </c>
@@ -67230,6 +67905,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>MAESTRANZA – PORTERO</t>
         </is>
       </c>
@@ -67256,6 +67936,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>ADMINISTRATIVO</t>
         </is>
       </c>
@@ -67282,6 +67967,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>AUXILIAR – CAPILLERO – SOLDADOR – LUSTRADOR – SASTRE</t>
         </is>
       </c>
@@ -67308,6 +67998,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>AUXILIAR – CHOFER – FURGONERO – AMBULANCIERO</t>
         </is>
       </c>
@@ -67334,6 +68029,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>AUXILIAR – PERSONAL SALAS VELATORIAS</t>
         </is>
       </c>
@@ -67360,6 +68060,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>MAESTRANZA – AYUDANTE – CAMILLERO – SERENO</t>
         </is>
       </c>
@@ -67386,6 +68091,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>MAESTRANZA – PEÓN</t>
         </is>
       </c>
@@ -67411,6 +68121,11 @@
         </is>
       </c>
       <c r="B71" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>MAESTRANZA – PORTERO</t>
         </is>

--- a/data/maestro_actualizado.xlsx
+++ b/data/maestro_actualizado.xlsx
@@ -95889,7 +95889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96579,6 +96579,282 @@
         <is>
           <t>Según horas ingresadas</t>
         </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Adicional General (todo el personal, incluidos choferes)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>62617</v>
+      </c>
+      <c r="E35" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Adicional Personal no incluido en inciso 1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>29298</v>
+      </c>
+      <c r="E36" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Adicional Chofer/Furgonero (vehículos)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>21267</v>
+      </c>
+      <c r="E37" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Adicional por Indumentaria</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>11005</v>
+      </c>
+      <c r="E38" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Adicional General (todo el personal, incluidos choferes)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>62617</v>
+      </c>
+      <c r="E39" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Adicional Personal no incluido en inciso 1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>29298</v>
+      </c>
+      <c r="E40" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Adicional Chofer/Furgonero (vehículos)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>21267</v>
+      </c>
+      <c r="E41" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Adicional por Indumentaria</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>11005</v>
+      </c>
+      <c r="E42" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Adicional General (todo el personal, incluidos choferes)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>62617</v>
+      </c>
+      <c r="E43" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Adicional Personal no incluido en inciso 1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>29298</v>
+      </c>
+      <c r="E44" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Adicional Chofer/Furgonero (vehículos)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>21267</v>
+      </c>
+      <c r="E45" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Fúnebres</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Adicional por Indumentaria</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>11005</v>
+      </c>
+      <c r="E46" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/data/maestro_actualizado.xlsx
+++ b/data/maestro_actualizado.xlsx
@@ -95889,7 +95889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96579,282 +96579,6 @@
         <is>
           <t>Según horas ingresadas</t>
         </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Fúnebres</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Adicional General (todo el personal, incluidos choferes)</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2026-02</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>62617</v>
-      </c>
-      <c r="E35" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Fúnebres</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Adicional Personal no incluido en inciso 1</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2026-02</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>29298</v>
-      </c>
-      <c r="E36" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Fúnebres</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Adicional Chofer/Furgonero (vehículos)</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2026-02</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>21267</v>
-      </c>
-      <c r="E37" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Fúnebres</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Adicional por Indumentaria</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2026-02</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>11005</v>
-      </c>
-      <c r="E38" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Fúnebres</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Adicional General (todo el personal, incluidos choferes)</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2026-03</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>62617</v>
-      </c>
-      <c r="E39" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Fúnebres</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Adicional Personal no incluido en inciso 1</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2026-03</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>29298</v>
-      </c>
-      <c r="E40" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Fúnebres</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Adicional Chofer/Furgonero (vehículos)</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2026-03</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>21267</v>
-      </c>
-      <c r="E41" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Fúnebres</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Adicional por Indumentaria</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2026-03</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>11005</v>
-      </c>
-      <c r="E42" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Fúnebres</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Adicional General (todo el personal, incluidos choferes)</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2026-04</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>62617</v>
-      </c>
-      <c r="E43" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Fúnebres</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Adicional Personal no incluido en inciso 1</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2026-04</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>29298</v>
-      </c>
-      <c r="E44" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Fúnebres</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Adicional Chofer/Furgonero (vehículos)</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2026-04</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>21267</v>
-      </c>
-      <c r="E45" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Fúnebres</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Adicional por Indumentaria</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2026-04</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>11005</v>
-      </c>
-      <c r="E46" t="n">
-        <v/>
       </c>
     </row>
   </sheetData>
